--- a/Results/1D_Results/1D_Results.xlsx
+++ b/Results/1D_Results/1D_Results.xlsx
@@ -4364,7 +4364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4544,8 +4544,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4660,6 +4666,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4705,9 +4722,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4775,15 +4793,15 @@
   <autoFilter ref="A1:E2341">
     <filterColumn colId="0">
       <filters>
-        <filter val="class5_1000_1"/>
-        <filter val="class5_1000_2"/>
-        <filter val="class5_1000_3"/>
-        <filter val="class5_400_1"/>
-        <filter val="class5_400_2"/>
-        <filter val="class5_400_3"/>
-        <filter val="class5_800_1"/>
-        <filter val="class5_800_2"/>
-        <filter val="class5_800_3"/>
+        <filter val="class8_1000_1"/>
+        <filter val="class8_1000_2"/>
+        <filter val="class8_1000_3"/>
+        <filter val="class8_400_1"/>
+        <filter val="class8_400_2"/>
+        <filter val="class8_400_3"/>
+        <filter val="class8_800_1"/>
+        <filter val="class8_800_2"/>
+        <filter val="class8_800_3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5063,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1200" sqref="E1200"/>
+    <sheetView tabSelected="1" topLeftCell="A2318" workbookViewId="0">
+      <selection activeCell="D2341" sqref="D2341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23237,7 +23255,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="1190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>838</v>
       </c>
@@ -23251,7 +23269,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="1191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>838</v>
       </c>
@@ -23265,7 +23283,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="1192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>838</v>
       </c>
@@ -23279,7 +23297,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="1193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
         <v>838</v>
       </c>
@@ -23293,7 +23311,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>838</v>
       </c>
@@ -23307,7 +23325,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
         <v>838</v>
       </c>
@@ -23321,7 +23339,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>838</v>
       </c>
@@ -23335,7 +23353,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>838</v>
       </c>
@@ -23349,7 +23367,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
         <v>838</v>
       </c>
@@ -23363,7 +23381,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>838</v>
       </c>
@@ -23377,7 +23395,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>838</v>
       </c>
@@ -23391,7 +23409,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>838</v>
       </c>
@@ -23405,7 +23423,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
         <v>838</v>
       </c>
@@ -23419,7 +23437,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
         <v>838</v>
       </c>
@@ -23433,7 +23451,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="1204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
         <v>838</v>
       </c>
@@ -23444,7 +23462,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="1205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
         <v>838</v>
       </c>
@@ -23455,7 +23473,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
         <v>838</v>
       </c>
@@ -23472,7 +23490,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
         <v>838</v>
       </c>
@@ -23489,7 +23507,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
         <v>838</v>
       </c>
@@ -23506,7 +23524,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
         <v>838</v>
       </c>
@@ -23523,7 +23541,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
         <v>838</v>
       </c>
@@ -23540,7 +23558,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
         <v>838</v>
       </c>
@@ -23557,7 +23575,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
         <v>838</v>
       </c>
@@ -23574,7 +23592,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="1213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
         <v>838</v>
       </c>
@@ -23591,7 +23609,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
         <v>838</v>
       </c>
@@ -23608,7 +23626,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
         <v>838</v>
       </c>
@@ -23625,7 +23643,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>838</v>
       </c>
@@ -23642,7 +23660,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="1217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
         <v>838</v>
       </c>
@@ -23659,7 +23677,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="1218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
         <v>838</v>
       </c>
@@ -23676,7 +23694,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="1219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
         <v>838</v>
       </c>
@@ -23693,7 +23711,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="1220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
         <v>838</v>
       </c>
@@ -23710,7 +23728,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="1221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
         <v>838</v>
       </c>
@@ -23727,7 +23745,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="1222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>856</v>
       </c>
@@ -23741,7 +23759,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
         <v>856</v>
       </c>
@@ -23755,7 +23773,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
         <v>856</v>
       </c>
@@ -23769,7 +23787,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
         <v>856</v>
       </c>
@@ -23783,7 +23801,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
         <v>856</v>
       </c>
@@ -23797,7 +23815,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
         <v>856</v>
       </c>
@@ -23811,7 +23829,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
         <v>856</v>
       </c>
@@ -23825,7 +23843,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
         <v>856</v>
       </c>
@@ -23839,7 +23857,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
         <v>856</v>
       </c>
@@ -23853,7 +23871,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
         <v>856</v>
       </c>
@@ -23867,7 +23885,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
         <v>856</v>
       </c>
@@ -23881,7 +23899,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
         <v>856</v>
       </c>
@@ -23895,7 +23913,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
         <v>856</v>
       </c>
@@ -23909,7 +23927,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
         <v>856</v>
       </c>
@@ -23923,7 +23941,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
         <v>856</v>
       </c>
@@ -23934,7 +23952,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
         <v>856</v>
       </c>
@@ -23945,7 +23963,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
         <v>856</v>
       </c>
@@ -23962,7 +23980,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>856</v>
       </c>
@@ -23979,7 +23997,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
         <v>856</v>
       </c>
@@ -23996,7 +24014,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
         <v>856</v>
       </c>
@@ -24013,7 +24031,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
         <v>856</v>
       </c>
@@ -24030,7 +24048,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
         <v>856</v>
       </c>
@@ -24047,7 +24065,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
         <v>856</v>
       </c>
@@ -24064,7 +24082,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
         <v>856</v>
       </c>
@@ -24081,7 +24099,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
         <v>856</v>
       </c>
@@ -24098,7 +24116,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
         <v>856</v>
       </c>
@@ -24115,7 +24133,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
         <v>856</v>
       </c>
@@ -24132,7 +24150,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
         <v>856</v>
       </c>
@@ -24149,7 +24167,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="1250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
         <v>856</v>
       </c>
@@ -24166,7 +24184,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
         <v>856</v>
       </c>
@@ -24183,7 +24201,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
         <v>856</v>
       </c>
@@ -24200,7 +24218,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
         <v>856</v>
       </c>
@@ -24217,7 +24235,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
         <v>863</v>
       </c>
@@ -24231,7 +24249,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
         <v>863</v>
       </c>
@@ -24245,7 +24263,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
         <v>863</v>
       </c>
@@ -24259,7 +24277,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
         <v>863</v>
       </c>
@@ -24273,7 +24291,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
         <v>863</v>
       </c>
@@ -24287,7 +24305,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
         <v>863</v>
       </c>
@@ -24301,7 +24319,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
         <v>863</v>
       </c>
@@ -24315,7 +24333,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
         <v>863</v>
       </c>
@@ -24329,7 +24347,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
         <v>863</v>
       </c>
@@ -24343,7 +24361,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
         <v>863</v>
       </c>
@@ -24357,7 +24375,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
         <v>863</v>
       </c>
@@ -24371,7 +24389,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
         <v>863</v>
       </c>
@@ -24385,7 +24403,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
         <v>863</v>
       </c>
@@ -24399,7 +24417,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
         <v>863</v>
       </c>
@@ -24413,7 +24431,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
         <v>863</v>
       </c>
@@ -24424,7 +24442,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
         <v>863</v>
       </c>
@@ -24435,7 +24453,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
         <v>863</v>
       </c>
@@ -24452,7 +24470,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>863</v>
       </c>
@@ -24469,7 +24487,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
         <v>863</v>
       </c>
@@ -24486,7 +24504,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
         <v>863</v>
       </c>
@@ -24503,7 +24521,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
         <v>863</v>
       </c>
@@ -24520,7 +24538,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
         <v>863</v>
       </c>
@@ -24537,7 +24555,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
         <v>863</v>
       </c>
@@ -24554,7 +24572,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
         <v>863</v>
       </c>
@@ -24571,7 +24589,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
         <v>863</v>
       </c>
@@ -24588,7 +24606,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
         <v>863</v>
       </c>
@@ -24605,7 +24623,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
         <v>863</v>
       </c>
@@ -24622,7 +24640,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
         <v>863</v>
       </c>
@@ -24639,7 +24657,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
         <v>863</v>
       </c>
@@ -24656,7 +24674,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
         <v>863</v>
       </c>
@@ -24673,7 +24691,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
         <v>863</v>
       </c>
@@ -24690,7 +24708,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
         <v>863</v>
       </c>
@@ -24707,7 +24725,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
         <v>864</v>
       </c>
@@ -24721,7 +24739,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="1287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
         <v>864</v>
       </c>
@@ -24735,7 +24753,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="1288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
         <v>864</v>
       </c>
@@ -24749,7 +24767,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="1289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
         <v>864</v>
       </c>
@@ -24763,7 +24781,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
         <v>864</v>
       </c>
@@ -24777,7 +24795,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
         <v>864</v>
       </c>
@@ -24791,7 +24809,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
         <v>864</v>
       </c>
@@ -24805,7 +24823,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
         <v>864</v>
       </c>
@@ -24819,7 +24837,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
         <v>864</v>
       </c>
@@ -24833,7 +24851,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
         <v>864</v>
       </c>
@@ -24847,7 +24865,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
         <v>864</v>
       </c>
@@ -24861,7 +24879,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
         <v>864</v>
       </c>
@@ -24875,7 +24893,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
         <v>864</v>
       </c>
@@ -24889,7 +24907,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
         <v>864</v>
       </c>
@@ -24903,7 +24921,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
         <v>864</v>
       </c>
@@ -24914,7 +24932,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="1301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
         <v>864</v>
       </c>
@@ -24925,7 +24943,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="1302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
         <v>864</v>
       </c>
@@ -24942,7 +24960,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
         <v>864</v>
       </c>
@@ -24959,7 +24977,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="1304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
         <v>864</v>
       </c>
@@ -24976,7 +24994,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="1305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
         <v>864</v>
       </c>
@@ -24993,7 +25011,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="1306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
         <v>864</v>
       </c>
@@ -25010,7 +25028,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
         <v>864</v>
       </c>
@@ -25027,7 +25045,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="1308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
         <v>864</v>
       </c>
@@ -25044,7 +25062,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="1309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
         <v>864</v>
       </c>
@@ -25061,7 +25079,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="1310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
         <v>864</v>
       </c>
@@ -25078,7 +25096,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="1311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
         <v>864</v>
       </c>
@@ -25095,7 +25113,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="1312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
         <v>864</v>
       </c>
@@ -25112,7 +25130,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
         <v>864</v>
       </c>
@@ -25129,7 +25147,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="1314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
         <v>864</v>
       </c>
@@ -25146,7 +25164,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
         <v>864</v>
       </c>
@@ -25163,7 +25181,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
         <v>864</v>
       </c>
@@ -25180,7 +25198,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
         <v>864</v>
       </c>
@@ -25197,7 +25215,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
         <v>879</v>
       </c>
@@ -25211,7 +25229,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="1319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
         <v>879</v>
       </c>
@@ -25225,7 +25243,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="1320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
         <v>879</v>
       </c>
@@ -25239,7 +25257,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="1321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
         <v>879</v>
       </c>
@@ -25253,7 +25271,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
         <v>879</v>
       </c>
@@ -25267,7 +25285,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
         <v>879</v>
       </c>
@@ -25281,7 +25299,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
         <v>879</v>
       </c>
@@ -25295,7 +25313,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
         <v>879</v>
       </c>
@@ -25309,7 +25327,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
         <v>879</v>
       </c>
@@ -25323,7 +25341,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
         <v>879</v>
       </c>
@@ -25337,7 +25355,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
         <v>879</v>
       </c>
@@ -25351,7 +25369,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
         <v>879</v>
       </c>
@@ -25365,7 +25383,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
         <v>879</v>
       </c>
@@ -25379,7 +25397,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
         <v>879</v>
       </c>
@@ -25393,7 +25411,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
         <v>879</v>
       </c>
@@ -25404,7 +25422,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
         <v>879</v>
       </c>
@@ -25415,7 +25433,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="1334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
         <v>879</v>
       </c>
@@ -25432,7 +25450,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
         <v>879</v>
       </c>
@@ -25449,7 +25467,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
         <v>879</v>
       </c>
@@ -25466,7 +25484,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
         <v>879</v>
       </c>
@@ -25483,7 +25501,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
         <v>879</v>
       </c>
@@ -25500,7 +25518,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
         <v>879</v>
       </c>
@@ -25517,7 +25535,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
         <v>879</v>
       </c>
@@ -25534,7 +25552,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
         <v>879</v>
       </c>
@@ -25551,7 +25569,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
         <v>879</v>
       </c>
@@ -25568,7 +25586,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
         <v>879</v>
       </c>
@@ -25585,7 +25603,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
         <v>879</v>
       </c>
@@ -25602,7 +25620,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
         <v>879</v>
       </c>
@@ -25619,7 +25637,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="1346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
         <v>879</v>
       </c>
@@ -25636,7 +25654,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
         <v>879</v>
       </c>
@@ -25653,7 +25671,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
         <v>879</v>
       </c>
@@ -25670,7 +25688,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
         <v>879</v>
       </c>
@@ -25687,7 +25705,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
         <v>882</v>
       </c>
@@ -25701,7 +25719,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="1351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
         <v>882</v>
       </c>
@@ -25715,7 +25733,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="1352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
         <v>882</v>
       </c>
@@ -25729,7 +25747,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="1353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
         <v>882</v>
       </c>
@@ -25743,7 +25761,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
         <v>882</v>
       </c>
@@ -25757,7 +25775,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
         <v>882</v>
       </c>
@@ -25771,7 +25789,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
         <v>882</v>
       </c>
@@ -25785,7 +25803,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
         <v>882</v>
       </c>
@@ -25799,7 +25817,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
         <v>882</v>
       </c>
@@ -25813,7 +25831,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
         <v>882</v>
       </c>
@@ -25827,7 +25845,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
         <v>882</v>
       </c>
@@ -25841,7 +25859,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
         <v>882</v>
       </c>
@@ -25855,7 +25873,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
         <v>882</v>
       </c>
@@ -25869,7 +25887,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
         <v>882</v>
       </c>
@@ -25883,7 +25901,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
         <v>882</v>
       </c>
@@ -25894,7 +25912,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="1365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
         <v>882</v>
       </c>
@@ -25905,7 +25923,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="1366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
         <v>882</v>
       </c>
@@ -25922,7 +25940,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
         <v>882</v>
       </c>
@@ -25939,7 +25957,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
         <v>882</v>
       </c>
@@ -25956,7 +25974,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
         <v>882</v>
       </c>
@@ -25973,7 +25991,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
         <v>882</v>
       </c>
@@ -25990,7 +26008,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
         <v>882</v>
       </c>
@@ -26007,7 +26025,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
         <v>882</v>
       </c>
@@ -26024,7 +26042,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
         <v>882</v>
       </c>
@@ -26041,7 +26059,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
         <v>882</v>
       </c>
@@ -26058,7 +26076,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
         <v>882</v>
       </c>
@@ -26075,7 +26093,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
         <v>882</v>
       </c>
@@ -26092,7 +26110,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
         <v>882</v>
       </c>
@@ -26109,7 +26127,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="1378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
         <v>882</v>
       </c>
@@ -26126,7 +26144,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
         <v>882</v>
       </c>
@@ -26143,7 +26161,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
         <v>882</v>
       </c>
@@ -26160,7 +26178,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
         <v>882</v>
       </c>
@@ -26177,7 +26195,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="1382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
         <v>886</v>
       </c>
@@ -26191,7 +26209,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="1383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
         <v>886</v>
       </c>
@@ -26205,7 +26223,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="1384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
         <v>886</v>
       </c>
@@ -26219,7 +26237,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="1385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
         <v>886</v>
       </c>
@@ -26233,7 +26251,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
         <v>886</v>
       </c>
@@ -26247,7 +26265,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
         <v>886</v>
       </c>
@@ -26261,7 +26279,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
         <v>886</v>
       </c>
@@ -26275,7 +26293,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
         <v>886</v>
       </c>
@@ -26289,7 +26307,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
         <v>886</v>
       </c>
@@ -26303,7 +26321,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
         <v>886</v>
       </c>
@@ -26317,7 +26335,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
         <v>886</v>
       </c>
@@ -26331,7 +26349,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
         <v>886</v>
       </c>
@@ -26345,7 +26363,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
         <v>886</v>
       </c>
@@ -26359,7 +26377,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
         <v>886</v>
       </c>
@@ -26373,7 +26391,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
         <v>886</v>
       </c>
@@ -26384,7 +26402,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
         <v>886</v>
       </c>
@@ -26395,7 +26413,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
         <v>886</v>
       </c>
@@ -26412,7 +26430,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
         <v>886</v>
       </c>
@@ -26429,7 +26447,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
         <v>886</v>
       </c>
@@ -26446,7 +26464,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
         <v>886</v>
       </c>
@@ -26463,7 +26481,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
         <v>886</v>
       </c>
@@ -26480,7 +26498,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
         <v>886</v>
       </c>
@@ -26497,7 +26515,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
         <v>886</v>
       </c>
@@ -26514,7 +26532,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
         <v>886</v>
       </c>
@@ -26531,7 +26549,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
         <v>886</v>
       </c>
@@ -26548,7 +26566,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
         <v>886</v>
       </c>
@@ -26565,7 +26583,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
         <v>886</v>
       </c>
@@ -26582,7 +26600,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
         <v>886</v>
       </c>
@@ -26599,7 +26617,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
         <v>886</v>
       </c>
@@ -26616,7 +26634,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="1411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
         <v>886</v>
       </c>
@@ -26633,7 +26651,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="1412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
         <v>886</v>
       </c>
@@ -26650,7 +26668,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
         <v>886</v>
       </c>
@@ -26667,7 +26685,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="1414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
         <v>899</v>
       </c>
@@ -26681,7 +26699,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
         <v>899</v>
       </c>
@@ -26695,7 +26713,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
         <v>899</v>
       </c>
@@ -26709,7 +26727,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
         <v>899</v>
       </c>
@@ -26723,7 +26741,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
         <v>899</v>
       </c>
@@ -26737,7 +26755,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
         <v>899</v>
       </c>
@@ -26751,7 +26769,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
         <v>899</v>
       </c>
@@ -26765,7 +26783,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
         <v>899</v>
       </c>
@@ -26779,7 +26797,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
         <v>899</v>
       </c>
@@ -26793,7 +26811,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
         <v>899</v>
       </c>
@@ -26807,7 +26825,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
         <v>899</v>
       </c>
@@ -26821,7 +26839,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
         <v>899</v>
       </c>
@@ -26835,7 +26853,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
         <v>899</v>
       </c>
@@ -26849,7 +26867,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
         <v>899</v>
       </c>
@@ -26863,7 +26881,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
         <v>899</v>
       </c>
@@ -26874,7 +26892,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="1429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
         <v>899</v>
       </c>
@@ -26885,7 +26903,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="1430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
         <v>899</v>
       </c>
@@ -26902,7 +26920,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1431" t="s">
         <v>899</v>
       </c>
@@ -26919,7 +26937,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
         <v>899</v>
       </c>
@@ -26936,7 +26954,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1433" t="s">
         <v>899</v>
       </c>
@@ -26953,7 +26971,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1434" t="s">
         <v>899</v>
       </c>
@@ -26970,7 +26988,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1435" t="s">
         <v>899</v>
       </c>
@@ -26987,7 +27005,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1436" t="s">
         <v>899</v>
       </c>
@@ -27004,7 +27022,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1437" t="s">
         <v>899</v>
       </c>
@@ -27021,7 +27039,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
         <v>899</v>
       </c>
@@ -27038,7 +27056,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
         <v>899</v>
       </c>
@@ -27055,7 +27073,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
         <v>899</v>
       </c>
@@ -27072,7 +27090,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
         <v>899</v>
       </c>
@@ -27089,7 +27107,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="1442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
         <v>899</v>
       </c>
@@ -27106,7 +27124,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="1443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
         <v>899</v>
       </c>
@@ -27123,7 +27141,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
         <v>899</v>
       </c>
@@ -27140,7 +27158,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>899</v>
       </c>
@@ -27157,7 +27175,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="1446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>909</v>
       </c>
@@ -27171,7 +27189,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>909</v>
       </c>
@@ -27185,7 +27203,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
         <v>909</v>
       </c>
@@ -27199,7 +27217,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
         <v>909</v>
       </c>
@@ -27213,7 +27231,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
         <v>909</v>
       </c>
@@ -27227,7 +27245,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1451" t="s">
         <v>909</v>
       </c>
@@ -27241,7 +27259,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
         <v>909</v>
       </c>
@@ -27255,7 +27273,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
         <v>909</v>
       </c>
@@ -27269,7 +27287,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1454" t="s">
         <v>909</v>
       </c>
@@ -27283,7 +27301,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1455" t="s">
         <v>909</v>
       </c>
@@ -27297,7 +27315,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1456" t="s">
         <v>909</v>
       </c>
@@ -27311,7 +27329,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1457" t="s">
         <v>909</v>
       </c>
@@ -27325,7 +27343,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1458" t="s">
         <v>909</v>
       </c>
@@ -27339,7 +27357,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1459" t="s">
         <v>909</v>
       </c>
@@ -27353,7 +27371,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="1460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1460" t="s">
         <v>909</v>
       </c>
@@ -27364,7 +27382,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="1461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
         <v>909</v>
       </c>
@@ -27375,7 +27393,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="1462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
         <v>909</v>
       </c>
@@ -27392,7 +27410,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
         <v>909</v>
       </c>
@@ -27409,7 +27427,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
         <v>909</v>
       </c>
@@ -27426,7 +27444,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1465" t="s">
         <v>909</v>
       </c>
@@ -27443,7 +27461,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1466" t="s">
         <v>909</v>
       </c>
@@ -27460,7 +27478,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1467" t="s">
         <v>909</v>
       </c>
@@ -27477,7 +27495,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1468" t="s">
         <v>909</v>
       </c>
@@ -27494,7 +27512,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
         <v>909</v>
       </c>
@@ -27511,7 +27529,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="1470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
         <v>909</v>
       </c>
@@ -27528,7 +27546,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
         <v>909</v>
       </c>
@@ -27545,7 +27563,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
         <v>909</v>
       </c>
@@ -27562,7 +27580,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
         <v>909</v>
       </c>
@@ -27579,7 +27597,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="1474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
         <v>909</v>
       </c>
@@ -27596,7 +27614,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
         <v>909</v>
       </c>
@@ -27613,7 +27631,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
         <v>909</v>
       </c>
@@ -27630,7 +27648,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
         <v>909</v>
       </c>
@@ -36467,7 +36485,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="2054" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2054" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2054" t="s">
         <v>1204</v>
       </c>
@@ -36481,7 +36499,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="2055" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2055" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2055" t="s">
         <v>1204</v>
       </c>
@@ -36495,7 +36513,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="2056" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2056" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2056" t="s">
         <v>1204</v>
       </c>
@@ -36509,7 +36527,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="2057" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2057" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2057" t="s">
         <v>1204</v>
       </c>
@@ -36523,7 +36541,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2058" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2058" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2058" t="s">
         <v>1204</v>
       </c>
@@ -36537,7 +36555,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2059" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2059" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2059" t="s">
         <v>1204</v>
       </c>
@@ -36551,7 +36569,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2060" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2060" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2060" t="s">
         <v>1204</v>
       </c>
@@ -36565,7 +36583,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2061" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2061" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2061" t="s">
         <v>1204</v>
       </c>
@@ -36579,7 +36597,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2062" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2062" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2062" t="s">
         <v>1204</v>
       </c>
@@ -36593,7 +36611,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2063" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2063" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2063" t="s">
         <v>1204</v>
       </c>
@@ -36607,7 +36625,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2064" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2064" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2064" t="s">
         <v>1204</v>
       </c>
@@ -36621,7 +36639,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2065" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2065" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2065" t="s">
         <v>1204</v>
       </c>
@@ -36635,7 +36653,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2066" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2066" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2066" t="s">
         <v>1204</v>
       </c>
@@ -36649,7 +36667,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2067" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2067" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2067" t="s">
         <v>1204</v>
       </c>
@@ -36663,7 +36681,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="2068" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2068" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2068" t="s">
         <v>1204</v>
       </c>
@@ -36674,7 +36692,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="2069" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2069" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2069" t="s">
         <v>1204</v>
       </c>
@@ -36685,7 +36703,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="2070" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2070" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2070" t="s">
         <v>1204</v>
       </c>
@@ -36702,7 +36720,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2071" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2071" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2071" t="s">
         <v>1204</v>
       </c>
@@ -36719,7 +36737,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2072" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2072" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2072" t="s">
         <v>1204</v>
       </c>
@@ -36736,7 +36754,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2073" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2073" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2073" t="s">
         <v>1204</v>
       </c>
@@ -36753,7 +36771,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2074" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2074" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2074" t="s">
         <v>1204</v>
       </c>
@@ -36770,7 +36788,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="2075" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2075" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2075" t="s">
         <v>1204</v>
       </c>
@@ -36787,7 +36805,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="2076" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2076" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2076" t="s">
         <v>1204</v>
       </c>
@@ -36804,7 +36822,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="2077" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2077" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2077" t="s">
         <v>1204</v>
       </c>
@@ -36821,7 +36839,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2078" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2078" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2078" t="s">
         <v>1204</v>
       </c>
@@ -36838,7 +36856,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2079" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2079" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2079" t="s">
         <v>1204</v>
       </c>
@@ -36855,7 +36873,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2080" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2080" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2080" t="s">
         <v>1204</v>
       </c>
@@ -36872,7 +36890,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2081" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2081" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2081" t="s">
         <v>1204</v>
       </c>
@@ -36889,7 +36907,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="2082" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2082" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2082" t="s">
         <v>1204</v>
       </c>
@@ -36906,7 +36924,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="2083" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2083" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2083" t="s">
         <v>1204</v>
       </c>
@@ -36923,7 +36941,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="2084" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2084" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2084" t="s">
         <v>1204</v>
       </c>
@@ -36940,7 +36958,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="2085" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2085" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2085" t="s">
         <v>1204</v>
       </c>
@@ -36957,7 +36975,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="2086" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2086" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2086" t="s">
         <v>1224</v>
       </c>
@@ -36971,7 +36989,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="2087" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2087" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2087" t="s">
         <v>1224</v>
       </c>
@@ -36985,7 +37003,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="2088" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2088" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2088" t="s">
         <v>1224</v>
       </c>
@@ -36999,7 +37017,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="2089" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2089" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2089" t="s">
         <v>1224</v>
       </c>
@@ -37013,7 +37031,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2090" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2090" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2090" t="s">
         <v>1224</v>
       </c>
@@ -37027,7 +37045,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2091" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2091" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2091" t="s">
         <v>1224</v>
       </c>
@@ -37041,7 +37059,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2092" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2092" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2092" t="s">
         <v>1224</v>
       </c>
@@ -37055,7 +37073,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2093" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2093" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2093" t="s">
         <v>1224</v>
       </c>
@@ -37069,7 +37087,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2094" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2094" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2094" t="s">
         <v>1224</v>
       </c>
@@ -37083,7 +37101,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2095" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2095" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2095" t="s">
         <v>1224</v>
       </c>
@@ -37097,7 +37115,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2096" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2096" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2096" t="s">
         <v>1224</v>
       </c>
@@ -37111,7 +37129,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2097" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2097" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2097" t="s">
         <v>1224</v>
       </c>
@@ -37125,7 +37143,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2098" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2098" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2098" t="s">
         <v>1224</v>
       </c>
@@ -37139,7 +37157,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2099" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2099" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2099" t="s">
         <v>1224</v>
       </c>
@@ -37153,7 +37171,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="2100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2100" t="s">
         <v>1224</v>
       </c>
@@ -37164,7 +37182,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="2101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2101" t="s">
         <v>1224</v>
       </c>
@@ -37175,7 +37193,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="2102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2102" t="s">
         <v>1224</v>
       </c>
@@ -37192,7 +37210,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2103" t="s">
         <v>1224</v>
       </c>
@@ -37209,7 +37227,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2104" t="s">
         <v>1224</v>
       </c>
@@ -37226,7 +37244,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2105" t="s">
         <v>1224</v>
       </c>
@@ -37243,7 +37261,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2106" t="s">
         <v>1224</v>
       </c>
@@ -37260,7 +37278,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="2107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2107" t="s">
         <v>1224</v>
       </c>
@@ -37277,7 +37295,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="2108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2108" t="s">
         <v>1224</v>
       </c>
@@ -37294,7 +37312,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2109" t="s">
         <v>1224</v>
       </c>
@@ -37311,7 +37329,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2110" t="s">
         <v>1224</v>
       </c>
@@ -37328,7 +37346,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2111" t="s">
         <v>1224</v>
       </c>
@@ -37345,7 +37363,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2112" t="s">
         <v>1224</v>
       </c>
@@ -37362,7 +37380,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="2113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2113" t="s">
         <v>1224</v>
       </c>
@@ -37379,7 +37397,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="2114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2114" t="s">
         <v>1224</v>
       </c>
@@ -37396,7 +37414,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="2115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2115" t="s">
         <v>1224</v>
       </c>
@@ -37413,7 +37431,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="2116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2116" t="s">
         <v>1224</v>
       </c>
@@ -37430,7 +37448,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="2117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2117" t="s">
         <v>1224</v>
       </c>
@@ -37447,7 +37465,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="2118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2118" t="s">
         <v>1244</v>
       </c>
@@ -37461,7 +37479,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="2119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2119" t="s">
         <v>1244</v>
       </c>
@@ -37475,7 +37493,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="2120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2120" t="s">
         <v>1244</v>
       </c>
@@ -37489,7 +37507,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="2121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2121" t="s">
         <v>1244</v>
       </c>
@@ -37503,7 +37521,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2122" t="s">
         <v>1244</v>
       </c>
@@ -37517,7 +37535,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2123" t="s">
         <v>1244</v>
       </c>
@@ -37531,7 +37549,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2124" t="s">
         <v>1244</v>
       </c>
@@ -37545,7 +37563,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2125" t="s">
         <v>1244</v>
       </c>
@@ -37559,7 +37577,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2126" t="s">
         <v>1244</v>
       </c>
@@ -37573,7 +37591,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2127" t="s">
         <v>1244</v>
       </c>
@@ -37587,7 +37605,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2128" t="s">
         <v>1244</v>
       </c>
@@ -37601,7 +37619,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2129" t="s">
         <v>1244</v>
       </c>
@@ -37615,7 +37633,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2130" t="s">
         <v>1244</v>
       </c>
@@ -37629,7 +37647,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2131" t="s">
         <v>1244</v>
       </c>
@@ -37643,7 +37661,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2132" t="s">
         <v>1244</v>
       </c>
@@ -37654,7 +37672,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="2133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2133" t="s">
         <v>1244</v>
       </c>
@@ -37665,7 +37683,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="2134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2134" t="s">
         <v>1244</v>
       </c>
@@ -37682,7 +37700,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2135" t="s">
         <v>1244</v>
       </c>
@@ -37699,7 +37717,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2136" t="s">
         <v>1244</v>
       </c>
@@ -37716,7 +37734,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2137" t="s">
         <v>1244</v>
       </c>
@@ -37733,7 +37751,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2138" t="s">
         <v>1244</v>
       </c>
@@ -37750,7 +37768,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="2139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2139" t="s">
         <v>1244</v>
       </c>
@@ -37767,7 +37785,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="2140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2140" t="s">
         <v>1244</v>
       </c>
@@ -37784,7 +37802,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="2141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2141" t="s">
         <v>1244</v>
       </c>
@@ -37801,7 +37819,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2142" t="s">
         <v>1244</v>
       </c>
@@ -37818,7 +37836,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
         <v>1244</v>
       </c>
@@ -37835,7 +37853,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
         <v>1244</v>
       </c>
@@ -37852,7 +37870,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
         <v>1244</v>
       </c>
@@ -37869,7 +37887,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="2146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2146" t="s">
         <v>1244</v>
       </c>
@@ -37886,7 +37904,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="2147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2147" t="s">
         <v>1244</v>
       </c>
@@ -37903,7 +37921,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2148" t="s">
         <v>1244</v>
       </c>
@@ -37920,7 +37938,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2149" t="s">
         <v>1244</v>
       </c>
@@ -37937,7 +37955,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="2150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
         <v>1262</v>
       </c>
@@ -37951,7 +37969,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="2151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
         <v>1262</v>
       </c>
@@ -37965,7 +37983,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="2152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
         <v>1262</v>
       </c>
@@ -37979,7 +37997,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="2153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
         <v>1262</v>
       </c>
@@ -37993,7 +38011,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
         <v>1262</v>
       </c>
@@ -38007,7 +38025,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
         <v>1262</v>
       </c>
@@ -38021,7 +38039,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
         <v>1262</v>
       </c>
@@ -38035,7 +38053,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
         <v>1262</v>
       </c>
@@ -38049,7 +38067,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
         <v>1262</v>
       </c>
@@ -38063,7 +38081,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2159" t="s">
         <v>1262</v>
       </c>
@@ -38077,7 +38095,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2160" t="s">
         <v>1262</v>
       </c>
@@ -38091,7 +38109,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2161" t="s">
         <v>1262</v>
       </c>
@@ -38105,7 +38123,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="2162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2162" t="s">
         <v>1262</v>
       </c>
@@ -38119,7 +38137,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2163" t="s">
         <v>1262</v>
       </c>
@@ -38133,7 +38151,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2164" t="s">
         <v>1262</v>
       </c>
@@ -38144,7 +38162,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="2165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2165" t="s">
         <v>1262</v>
       </c>
@@ -38155,7 +38173,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="2166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2166" t="s">
         <v>1262</v>
       </c>
@@ -38172,7 +38190,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2167" t="s">
         <v>1262</v>
       </c>
@@ -38189,7 +38207,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2168" t="s">
         <v>1262</v>
       </c>
@@ -38206,7 +38224,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2169" t="s">
         <v>1262</v>
       </c>
@@ -38223,7 +38241,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2170" t="s">
         <v>1262</v>
       </c>
@@ -38240,7 +38258,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="2171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2171" t="s">
         <v>1262</v>
       </c>
@@ -38257,7 +38275,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="2172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2172" t="s">
         <v>1262</v>
       </c>
@@ -38274,7 +38292,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="2173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2173" t="s">
         <v>1262</v>
       </c>
@@ -38291,7 +38309,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2174" t="s">
         <v>1262</v>
       </c>
@@ -38308,7 +38326,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2175" t="s">
         <v>1262</v>
       </c>
@@ -38325,7 +38343,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2176" t="s">
         <v>1262</v>
       </c>
@@ -38342,7 +38360,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="2177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2177" t="s">
         <v>1262</v>
       </c>
@@ -38359,7 +38377,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="2178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2178" t="s">
         <v>1262</v>
       </c>
@@ -38376,7 +38394,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="2179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2179" t="s">
         <v>1262</v>
       </c>
@@ -38393,7 +38411,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="2180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2180" t="s">
         <v>1262</v>
       </c>
@@ -38403,14 +38421,14 @@
       <c r="C2180" t="s">
         <v>58</v>
       </c>
-      <c r="D2180" s="1" t="s">
+      <c r="D2180" s="2" t="s">
         <v>1281</v>
       </c>
       <c r="E2180" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="2181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2181" t="s">
         <v>1262</v>
       </c>
@@ -38427,7 +38445,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="2182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2182" t="s">
         <v>1285</v>
       </c>
@@ -38441,7 +38459,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="2183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2183" t="s">
         <v>1285</v>
       </c>
@@ -38455,7 +38473,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="2184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2184" t="s">
         <v>1285</v>
       </c>
@@ -38469,7 +38487,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="2185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2185" t="s">
         <v>1285</v>
       </c>
@@ -38483,7 +38501,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2186" t="s">
         <v>1285</v>
       </c>
@@ -38497,7 +38515,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2187" t="s">
         <v>1285</v>
       </c>
@@ -38511,7 +38529,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2188" t="s">
         <v>1285</v>
       </c>
@@ -38525,7 +38543,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2189" t="s">
         <v>1285</v>
       </c>
@@ -38539,7 +38557,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2190" t="s">
         <v>1285</v>
       </c>
@@ -38553,7 +38571,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2191" t="s">
         <v>1285</v>
       </c>
@@ -38567,7 +38585,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2192" t="s">
         <v>1285</v>
       </c>
@@ -38581,7 +38599,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2193" t="s">
         <v>1285</v>
       </c>
@@ -38595,7 +38613,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2194" t="s">
         <v>1285</v>
       </c>
@@ -38609,7 +38627,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2195" t="s">
         <v>1285</v>
       </c>
@@ -38623,7 +38641,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2196" t="s">
         <v>1285</v>
       </c>
@@ -38634,7 +38652,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="2197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2197" t="s">
         <v>1285</v>
       </c>
@@ -38645,7 +38663,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="2198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2198" t="s">
         <v>1285</v>
       </c>
@@ -38662,7 +38680,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2199" t="s">
         <v>1285</v>
       </c>
@@ -38679,7 +38697,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2200" t="s">
         <v>1285</v>
       </c>
@@ -38696,7 +38714,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2201" t="s">
         <v>1285</v>
       </c>
@@ -38713,7 +38731,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2202" t="s">
         <v>1285</v>
       </c>
@@ -38730,7 +38748,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="2203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2203" t="s">
         <v>1285</v>
       </c>
@@ -38747,7 +38765,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="2204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2204" t="s">
         <v>1285</v>
       </c>
@@ -38764,7 +38782,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="2205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2205" t="s">
         <v>1285</v>
       </c>
@@ -38781,7 +38799,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2206" t="s">
         <v>1285</v>
       </c>
@@ -38798,7 +38816,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2207" t="s">
         <v>1285</v>
       </c>
@@ -38815,7 +38833,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2208" t="s">
         <v>1285</v>
       </c>
@@ -38832,7 +38850,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="2209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2209" t="s">
         <v>1285</v>
       </c>
@@ -38849,7 +38867,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="2210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2210" t="s">
         <v>1285</v>
       </c>
@@ -38866,7 +38884,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="2211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2211" t="s">
         <v>1285</v>
       </c>
@@ -38883,7 +38901,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="2212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2212" t="s">
         <v>1285</v>
       </c>
@@ -38900,7 +38918,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="2213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2213" t="s">
         <v>1285</v>
       </c>
@@ -38917,7 +38935,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="2214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2214" t="s">
         <v>1307</v>
       </c>
@@ -38931,7 +38949,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2215" t="s">
         <v>1307</v>
       </c>
@@ -38945,7 +38963,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2216" t="s">
         <v>1307</v>
       </c>
@@ -38959,7 +38977,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="2217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2217" t="s">
         <v>1307</v>
       </c>
@@ -38973,7 +38991,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2218" t="s">
         <v>1307</v>
       </c>
@@ -38987,7 +39005,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2219" t="s">
         <v>1307</v>
       </c>
@@ -39001,7 +39019,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2220" t="s">
         <v>1307</v>
       </c>
@@ -39015,7 +39033,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2221" t="s">
         <v>1307</v>
       </c>
@@ -39029,7 +39047,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2222" t="s">
         <v>1307</v>
       </c>
@@ -39043,7 +39061,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2223" t="s">
         <v>1307</v>
       </c>
@@ -39057,7 +39075,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2224" t="s">
         <v>1307</v>
       </c>
@@ -39071,7 +39089,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2225" t="s">
         <v>1307</v>
       </c>
@@ -39085,7 +39103,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2226" t="s">
         <v>1307</v>
       </c>
@@ -39099,7 +39117,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2227" t="s">
         <v>1307</v>
       </c>
@@ -39113,7 +39131,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="2228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2228" t="s">
         <v>1307</v>
       </c>
@@ -39124,7 +39142,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="2229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2229" t="s">
         <v>1307</v>
       </c>
@@ -39135,7 +39153,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="2230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2230" t="s">
         <v>1307</v>
       </c>
@@ -39152,7 +39170,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2231" t="s">
         <v>1307</v>
       </c>
@@ -39169,7 +39187,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2232" t="s">
         <v>1307</v>
       </c>
@@ -39186,7 +39204,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2233" t="s">
         <v>1307</v>
       </c>
@@ -39203,7 +39221,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2234" t="s">
         <v>1307</v>
       </c>
@@ -39220,7 +39238,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="2235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2235" t="s">
         <v>1307</v>
       </c>
@@ -39237,7 +39255,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="2236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2236" t="s">
         <v>1307</v>
       </c>
@@ -39254,7 +39272,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="2237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2237" t="s">
         <v>1307</v>
       </c>
@@ -39271,7 +39289,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="2238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2238" t="s">
         <v>1307</v>
       </c>
@@ -39288,7 +39306,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2239" t="s">
         <v>1307</v>
       </c>
@@ -39305,7 +39323,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2240" t="s">
         <v>1307</v>
       </c>
@@ -39322,7 +39340,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2241" t="s">
         <v>1307</v>
       </c>
@@ -39339,7 +39357,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="2242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2242" t="s">
         <v>1307</v>
       </c>
@@ -39356,7 +39374,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="2243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2243" t="s">
         <v>1307</v>
       </c>
@@ -39373,7 +39391,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2244" t="s">
         <v>1307</v>
       </c>
@@ -39390,7 +39408,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2245" t="s">
         <v>1307</v>
       </c>
@@ -39407,7 +39425,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="2246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2246" t="s">
         <v>1326</v>
       </c>
@@ -39421,7 +39439,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="2247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2247" t="s">
         <v>1326</v>
       </c>
@@ -39435,7 +39453,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="2248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2248" t="s">
         <v>1326</v>
       </c>
@@ -39449,7 +39467,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="2249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2249" t="s">
         <v>1326</v>
       </c>
@@ -39463,7 +39481,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2250" t="s">
         <v>1326</v>
       </c>
@@ -39477,7 +39495,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2251" t="s">
         <v>1326</v>
       </c>
@@ -39491,7 +39509,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2252" t="s">
         <v>1326</v>
       </c>
@@ -39505,7 +39523,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2253" t="s">
         <v>1326</v>
       </c>
@@ -39519,7 +39537,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2254" t="s">
         <v>1326</v>
       </c>
@@ -39533,7 +39551,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2255" t="s">
         <v>1326</v>
       </c>
@@ -39547,7 +39565,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="2256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2256" t="s">
         <v>1326</v>
       </c>
@@ -39561,7 +39579,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2257" t="s">
         <v>1326</v>
       </c>
@@ -39575,7 +39593,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2258" t="s">
         <v>1326</v>
       </c>
@@ -39589,7 +39607,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2259" t="s">
         <v>1326</v>
       </c>
@@ -39603,7 +39621,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="2260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2260" t="s">
         <v>1326</v>
       </c>
@@ -39614,7 +39632,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="2261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2261" t="s">
         <v>1326</v>
       </c>
@@ -39625,7 +39643,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="2262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2262" t="s">
         <v>1326</v>
       </c>
@@ -39642,7 +39660,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2263" t="s">
         <v>1326</v>
       </c>
@@ -39659,7 +39677,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2264" t="s">
         <v>1326</v>
       </c>
@@ -39676,7 +39694,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2265" t="s">
         <v>1326</v>
       </c>
@@ -39693,7 +39711,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2266" t="s">
         <v>1326</v>
       </c>
@@ -39710,7 +39728,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="2267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2267" t="s">
         <v>1326</v>
       </c>
@@ -39727,7 +39745,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="2268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2268" t="s">
         <v>1326</v>
       </c>
@@ -39744,7 +39762,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="2269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2269" t="s">
         <v>1326</v>
       </c>
@@ -39761,7 +39779,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2270" t="s">
         <v>1326</v>
       </c>
@@ -39778,7 +39796,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2271" t="s">
         <v>1326</v>
       </c>
@@ -39795,7 +39813,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2272" t="s">
         <v>1326</v>
       </c>
@@ -39812,7 +39830,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="2273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2273" t="s">
         <v>1326</v>
       </c>
@@ -39829,7 +39847,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="2274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2274" t="s">
         <v>1326</v>
       </c>
@@ -39846,7 +39864,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="2275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2275" t="s">
         <v>1326</v>
       </c>
@@ -39863,7 +39881,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="2276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2276" t="s">
         <v>1326</v>
       </c>
@@ -39880,7 +39898,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="2277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2277" t="s">
         <v>1326</v>
       </c>
@@ -39897,7 +39915,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="2278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2278" t="s">
         <v>1349</v>
       </c>
@@ -39911,7 +39929,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="2279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2279" t="s">
         <v>1349</v>
       </c>
@@ -39925,7 +39943,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="2280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2280" t="s">
         <v>1349</v>
       </c>
@@ -39939,7 +39957,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="2281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2281" t="s">
         <v>1349</v>
       </c>
@@ -39953,7 +39971,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2282" t="s">
         <v>1349</v>
       </c>
@@ -39967,7 +39985,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2283" t="s">
         <v>1349</v>
       </c>
@@ -39981,7 +39999,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2284" t="s">
         <v>1349</v>
       </c>
@@ -39995,7 +40013,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2285" t="s">
         <v>1349</v>
       </c>
@@ -40009,7 +40027,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2286" t="s">
         <v>1349</v>
       </c>
@@ -40023,7 +40041,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2287" t="s">
         <v>1349</v>
       </c>
@@ -40037,7 +40055,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2288" t="s">
         <v>1349</v>
       </c>
@@ -40051,7 +40069,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2289" t="s">
         <v>1349</v>
       </c>
@@ -40065,7 +40083,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2290" t="s">
         <v>1349</v>
       </c>
@@ -40079,7 +40097,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2291" t="s">
         <v>1349</v>
       </c>
@@ -40093,7 +40111,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2292" t="s">
         <v>1349</v>
       </c>
@@ -40104,7 +40122,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="2293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2293" t="s">
         <v>1349</v>
       </c>
@@ -40115,7 +40133,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="2294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2294" t="s">
         <v>1349</v>
       </c>
@@ -40132,7 +40150,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2295" t="s">
         <v>1349</v>
       </c>
@@ -40149,7 +40167,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2296" t="s">
         <v>1349</v>
       </c>
@@ -40166,7 +40184,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2297" t="s">
         <v>1349</v>
       </c>
@@ -40183,7 +40201,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2298" t="s">
         <v>1349</v>
       </c>
@@ -40200,7 +40218,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="2299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2299" t="s">
         <v>1349</v>
       </c>
@@ -40217,7 +40235,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="2300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2300" t="s">
         <v>1349</v>
       </c>
@@ -40234,7 +40252,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="2301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2301" t="s">
         <v>1349</v>
       </c>
@@ -40251,7 +40269,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2302" t="s">
         <v>1349</v>
       </c>
@@ -40268,7 +40286,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2303" t="s">
         <v>1349</v>
       </c>
@@ -40285,7 +40303,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2304" t="s">
         <v>1349</v>
       </c>
@@ -40302,7 +40320,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="2305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2305" t="s">
         <v>1349</v>
       </c>
@@ -40319,7 +40337,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="2306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2306" t="s">
         <v>1349</v>
       </c>
@@ -40336,7 +40354,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="2307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2307" t="s">
         <v>1349</v>
       </c>
@@ -40353,7 +40371,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="2308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2308" t="s">
         <v>1349</v>
       </c>
@@ -40370,7 +40388,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="2309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2309" t="s">
         <v>1349</v>
       </c>
@@ -40387,7 +40405,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="2310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2310" t="s">
         <v>1368</v>
       </c>
@@ -40401,7 +40419,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="2311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2311" t="s">
         <v>1368</v>
       </c>
@@ -40415,7 +40433,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="2312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2312" t="s">
         <v>1368</v>
       </c>
@@ -40429,7 +40447,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="2313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2313" t="s">
         <v>1368</v>
       </c>
@@ -40443,7 +40461,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2314" t="s">
         <v>1368</v>
       </c>
@@ -40457,7 +40475,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2315" t="s">
         <v>1368</v>
       </c>
@@ -40471,7 +40489,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2316" t="s">
         <v>1368</v>
       </c>
@@ -40485,7 +40503,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2317" t="s">
         <v>1368</v>
       </c>
@@ -40499,7 +40517,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2318" t="s">
         <v>1368</v>
       </c>
@@ -40513,7 +40531,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2319" t="s">
         <v>1368</v>
       </c>
@@ -40527,7 +40545,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2320" t="s">
         <v>1368</v>
       </c>
@@ -40541,7 +40559,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2321" t="s">
         <v>1368</v>
       </c>
@@ -40555,7 +40573,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2322" t="s">
         <v>1368</v>
       </c>
@@ -40569,7 +40587,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2323" t="s">
         <v>1368</v>
       </c>
@@ -40583,7 +40601,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="2324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2324" t="s">
         <v>1368</v>
       </c>
@@ -40594,7 +40612,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="2325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2325" t="s">
         <v>1368</v>
       </c>
@@ -40605,7 +40623,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="2326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2326" t="s">
         <v>1368</v>
       </c>
@@ -40622,7 +40640,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2327" t="s">
         <v>1368</v>
       </c>
@@ -40639,7 +40657,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2328" t="s">
         <v>1368</v>
       </c>
@@ -40656,7 +40674,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2329" t="s">
         <v>1368</v>
       </c>
@@ -40673,7 +40691,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2330" t="s">
         <v>1368</v>
       </c>
@@ -40690,7 +40708,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="2331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2331" t="s">
         <v>1368</v>
       </c>
@@ -40707,7 +40725,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="2332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2332" t="s">
         <v>1368</v>
       </c>
@@ -40724,7 +40742,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="2333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2333" t="s">
         <v>1368</v>
       </c>
@@ -40741,7 +40759,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2334" t="s">
         <v>1368</v>
       </c>
@@ -40758,7 +40776,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2335" t="s">
         <v>1368</v>
       </c>
@@ -40775,7 +40793,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2336" t="s">
         <v>1368</v>
       </c>
@@ -40792,7 +40810,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="2337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2337" t="s">
         <v>1368</v>
       </c>
@@ -40809,7 +40827,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="2338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2338" t="s">
         <v>1368</v>
       </c>
@@ -40826,7 +40844,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="2339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2339" t="s">
         <v>1368</v>
       </c>
@@ -40843,7 +40861,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="2340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2340" t="s">
         <v>1368</v>
       </c>
@@ -40860,7 +40878,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="2341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2341" t="s">
         <v>1368</v>
       </c>
